--- a/pesquisa.xlsx
+++ b/pesquisa.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -426,31 +426,25 @@
       <c r="F1" t="str">
         <v>Resposta4</v>
       </c>
-      <c r="G1" t="str">
-        <v>Resposta5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>O que é mais importante em uma venda?</v>
+        <v>Qual o perfil dos seus clientes?</v>
       </c>
       <c r="C2" t="str">
-        <v>Comissão</v>
+        <v>Pequeno produtor (até 50 hectares)</v>
       </c>
       <c r="D2" t="str">
-        <v>Garantia</v>
+        <v>Médio produtor (50 a 500 hectares)</v>
       </c>
       <c r="E2" t="str">
-        <v>Qualidade</v>
+        <v>Grande produtor (acima de 500 hectares)</v>
       </c>
       <c r="F2" t="str">
-        <v>Preço</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Entrega</v>
+        <v xml:space="preserve"> Cooperativas ou associações</v>
       </c>
     </row>
     <row r="3">
@@ -458,22 +452,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Qual é o tipo de venda mais eficaz?</v>
+        <v>Qual a cultura agrícola mais predominante na sua região?</v>
       </c>
       <c r="C3" t="str">
-        <v>Consultiva</v>
+        <v>Soja</v>
       </c>
       <c r="D3" t="str">
-        <v>Direta</v>
+        <v>Milho</v>
       </c>
       <c r="E3" t="str">
-        <v>Online</v>
+        <v>Cana-de-açúcar</v>
       </c>
       <c r="F3" t="str">
-        <v>Telefone</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Porta</v>
+        <v>Fruticultura</v>
       </c>
     </row>
     <row r="4">
@@ -481,22 +472,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Qual fator mais influencia a compra?</v>
+        <v>Qual o tamanho médio das propriedades de seus clientes na região?</v>
       </c>
       <c r="C4" t="str">
-        <v>Preço</v>
+        <v>Até 50 hectares</v>
       </c>
       <c r="D4" t="str">
-        <v>Atendimento</v>
+        <v>Entre 50 e 500 hectares</v>
       </c>
       <c r="E4" t="str">
-        <v>Qualidade</v>
+        <v>Acima de 500 hectares</v>
       </c>
       <c r="F4" t="str">
-        <v>Marca</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Promoção</v>
+        <v xml:space="preserve"> Variado (pequenas, médias e grandes)</v>
       </c>
     </row>
     <row r="5">
@@ -504,22 +492,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Qual técnica ajuda a fechar vendas?</v>
+        <v>Quais equipamentos são mais atrativos em sua região?</v>
       </c>
       <c r="C5" t="str">
-        <v>Upselling</v>
+        <v>Tratores de pequeno porte</v>
       </c>
       <c r="D5" t="str">
-        <v>Cross</v>
+        <v>Tratores de grande porte</v>
       </c>
       <c r="E5" t="str">
-        <v>SPIN</v>
+        <v>Colheitadeiras</v>
       </c>
       <c r="F5" t="str">
-        <v>Direta</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Desconto</v>
+        <v>Implementos agrícolas</v>
       </c>
     </row>
     <row r="6">
@@ -527,36 +512,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>Como lidar com objeções?</v>
+        <v>Que rádios seus clientes ouvem diariamente?</v>
       </c>
       <c r="C6" t="str">
-        <v>Ignorar</v>
+        <v>Rádios locais</v>
       </c>
       <c r="D6" t="str">
-        <v>Desconto</v>
+        <v>Rádios regionais</v>
       </c>
       <c r="E6" t="str">
-        <v>Ouvir</v>
+        <v>Rádios nacionais</v>
       </c>
       <c r="F6" t="str">
-        <v>Pressionar</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Mudar</v>
+        <v>Não ouvem rádio</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B3"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -566,88 +548,157 @@
         <v>Pergunta</v>
       </c>
       <c r="B1" t="str">
-        <v>Guilherme (eu)</v>
+        <v>Guilherme</v>
       </c>
       <c r="C1" t="str">
         <v>Joao</v>
       </c>
       <c r="D1" t="str">
+        <v>Leandro</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Glauber</v>
+      </c>
+      <c r="F1" t="str">
         <v>Ramal</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>O que é mais importante em uma venda?</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Comissão</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Garantia</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Comissão</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Qual é o tipo de venda mais eficaz?</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Telefone</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Online</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Direta</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Qual fator mais influencia a compra?</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Qualidade</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Atendimento</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Qualidade</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Qual técnica ajuda a fechar vendas?</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Upselling</v>
-      </c>
-      <c r="C5" t="str">
-        <v>SPIN</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Direta</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Como lidar com objeções?</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Ouvir</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Mudar</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Mudar</v>
+    <row r="7">
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Qual o perfil dos seus clientes?</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Médio produtor (50 a 500 hectares)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>(Outros) 2</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Pequeno produtor (até 50 hectares)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Qual a cultura agrícola mais predominante na sua região?</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Cana-de-açúcar</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Fruticultura</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>(Outros) Tata</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Qual o tamanho médio das propriedades de seus clientes na região?</v>
+      </c>
+      <c r="B12" t="str">
+        <v>(Outros) Tá</v>
+      </c>
+      <c r="C12" t="str">
+        <v>(Outros) 4</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve"> Variado (pequenas, médias e grandes)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Quais equipamentos são mais atrativos em sua região?</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Implementos agrícolas</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Implementos agrícolas</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>Colheitadeiras</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Que rádios seus clientes ouvem diariamente?</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Rádios locais</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Rádios locais</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>(Outros) Foi</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>